--- a/biology/Zoologie/Hystricidae/Hystricidae.xlsx
+++ b/biology/Zoologie/Hystricidae/Hystricidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hystricidés (Hystricidae) sont une famille de rongeurs qui rassemble les porcs-épics de l'Ancien monde.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les porcs-épics hystricidés sont de grands rongeurs dont le corps est recouvert de piquants de longueur et d'épaisseur variables selon l'espèce.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se rencontrent dans les régions chaudes d'Afrique et d'Asie. 
 Seul le Porc-épic à crête (Hystrix cristata) est observé en Europe, en Sicile et dans le Sud de l'Italie.
@@ -574,17 +590,54 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette famille a été décrite pour la première fois en 1817 par le naturaliste saxon devenu sujet russe Gotthelf Fischer von Waldheim (1771-1853). 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1817 par le naturaliste saxon devenu sujet russe Gotthelf Fischer von Waldheim (1771-1853). 
 La famille des Hystricidés est classée dans le sous-ordre des Hystricomorphes (ou celui des Hystricognathes selon les auteurs plus anciens).
 On ne doit pas les confondre avec une famille voisine, les Éréthizontidés, qui rassemble les porcs-épics du Nouveau monde que l'on différencie généralement par leurs piquants moins longs que ceux de l'Ancien monde, et la queue préhensile chez les espèces arboricoles.
-Liste des genres
-Selon Mammal Species of the World (version 3, 2005)  (21 mars 2014)[1], Catalogue of Life                                   (21 mars 2014)[2] et ITIS      (21 mars 2014)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hystricidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystricidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (21 mars 2014), Catalogue of Life                                   (21 mars 2014) et ITIS      (21 mars 2014) :
 genre Atherurus F. Cuvier, 1829
 genre Hystrix Linnaeus, 1758
 genre Trichys Günther, 1877
-Selon Paleobiology Database                   (21 mars 2014)[4] :
+Selon Paleobiology Database                   (21 mars 2014) :
 genre Acanthia
 genre Atherurus
 genre Hystrix
@@ -593,8 +646,43 @@
 genre Trichys
 genre Xenohystrix
 Le genre Thecurus n'est plus reconnu et les espèces sont reclassées dans Hystrix.
-Liste des sous-genres
-Selon Mammal Species of the World (version 3, 2005)  (21 mars 2014)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hystricidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hystricidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 mars 2014) :
 genre Atherurus
 genre Hystrix
 sous-genre Hystrix (Acanthion)
@@ -604,31 +692,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hystricidae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hystricidae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Liste de noms vernaculaires français dans cette famille :
 Porc-épic à queue en brosse africaine, Atherurus africanus
